--- a/Data_Input/Portal/Sanity_Portal_input_datasheet.xlsx
+++ b/Data_Input/Portal/Sanity_Portal_input_datasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B496GZ\Desktop\Automation Testing\Data_Input\Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\Portal\Data_Input\Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688470E0-AAFC-4F1E-ADFF-A1A20B5E3E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A10473-8984-4A0F-AC03-0F2D38087B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{D2D81E55-7330-49A0-8FE1-7ABE94758941}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2D81E55-7330-49A0-8FE1-7ABE94758941}"/>
   </bookViews>
   <sheets>
     <sheet name="Final summary" sheetId="8" r:id="rId1"/>
@@ -39,8 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -852,11 +850,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -864,7 +862,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -872,13 +870,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -886,15 +884,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -959,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -991,7 +996,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1005,8 +1009,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1033,7 +1037,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1336,23 +1340,23 @@
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.4140625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
     <col min="11" max="11" width="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.90625" customWidth="1"/>
+    <col min="12" max="12" width="30.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -1414,7 +1418,7 @@
       </c>
       <c r="I2" s="4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(TODAY(),TODAY()+59),"dd-MM-YYYY")</f>
-        <v>02-09-2024</v>
+        <v>12-10-2025</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
@@ -1423,7 +1427,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>58</v>
@@ -1450,7 +1454,7 @@
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I11" ca="1" si="0">TEXT(RANDBETWEEN(TODAY(),TODAY()+59),"dd-MM-YYYY")</f>
-        <v>02-08-2024</v>
+        <v>10-11-2025</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>23</v>
@@ -1459,7 +1463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>131</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>58</v>
@@ -1486,7 +1490,7 @@
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>26-09-2024</v>
+        <v>10-11-2025</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>23</v>
@@ -1495,7 +1499,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>239</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>131</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>58</v>
@@ -1522,7 +1526,7 @@
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10-09-2024</v>
+        <v>08-10-2025</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>23</v>
@@ -1531,7 +1535,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>240</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>131</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>58</v>
@@ -1558,7 +1562,7 @@
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13-09-2024</v>
+        <v>01-10-2025</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>23</v>
@@ -1567,7 +1571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>241</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>131</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>244</v>
@@ -1594,7 +1598,7 @@
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>27-08-2024</v>
+        <v>24-10-2025</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>23</v>
@@ -1603,7 +1607,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>242</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>131</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>244</v>
@@ -1630,7 +1634,7 @@
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-09-2024</v>
+        <v>29-09-2025</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>23</v>
@@ -1639,7 +1643,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>131</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>244</v>
@@ -1666,7 +1670,7 @@
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12-09-2024</v>
+        <v>21-09-2025</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>23</v>
@@ -1675,7 +1679,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>260</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>131</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>58</v>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20-09-2024</v>
+        <v>22-10-2025</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>23</v>
@@ -1711,7 +1715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>131</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>244</v>
@@ -1738,7 +1742,7 @@
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>29-08-2024</v>
+        <v>14-11-2025</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>23</v>
@@ -1794,15 +1798,15 @@
       <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1816,77 +1820,78 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1900,26 +1905,26 @@
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.9140625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +1971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -1984,7 +1989,7 @@
       </c>
       <c r="F2" s="4" t="str">
         <f ca="1">TEXT(RANDBETWEEN(TODAY()-5,TODAY()+59),"d-M-YYYY")</f>
-        <v>10-8-2024</v>
+        <v>4-10-2025</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
@@ -2014,7 +2019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>240</v>
       </c>
@@ -2032,7 +2037,7 @@
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F5" ca="1" si="0">TEXT(RANDBETWEEN(TODAY()-5,TODAY()+59),"d-M-YYYY")</f>
-        <v>8-9-2024</v>
+        <v>20-9-2025</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>23</v>
@@ -2062,7 +2067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>242</v>
       </c>
@@ -2080,7 +2085,7 @@
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15-9-2024</v>
+        <v>3-10-2025</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -2110,7 +2115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>249</v>
       </c>
@@ -2128,7 +2133,7 @@
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30-8-2024</v>
+        <v>19-10-2025</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
@@ -2195,26 +2200,26 @@
       <selection pane="topRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>238</v>
       </c>
@@ -2274,10 +2279,10 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2308,7 +2313,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>243</v>
       </c>
@@ -2321,10 +2326,10 @@
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2389,25 +2394,25 @@
       <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.9140625" customWidth="1"/>
+    <col min="3" max="3" width="31.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21.6328125" customWidth="1"/>
-    <col min="15" max="15" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -2464,7 +2469,7 @@
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2501,7 +2506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
@@ -2511,7 +2516,7 @@
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2548,7 +2553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
@@ -2558,7 +2563,7 @@
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2595,7 +2600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>239</v>
       </c>
@@ -2605,7 +2610,7 @@
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2640,7 +2645,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>240</v>
       </c>
@@ -2650,7 +2655,7 @@
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2685,7 +2690,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>241</v>
       </c>
@@ -2695,7 +2700,7 @@
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2732,7 +2737,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>242</v>
       </c>
@@ -2742,7 +2747,7 @@
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2779,7 +2784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
@@ -2789,7 +2794,7 @@
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2826,7 +2831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>248</v>
       </c>
@@ -2836,7 +2841,7 @@
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2873,7 +2878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>249</v>
       </c>
@@ -2883,7 +2888,7 @@
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2920,7 +2925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>260</v>
       </c>
@@ -2930,7 +2935,7 @@
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2967,7 +2972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>261</v>
       </c>
@@ -2977,7 +2982,7 @@
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3049,19 +3054,19 @@
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -3113,7 +3118,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
@@ -3165,7 +3170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>239</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>240</v>
       </c>
@@ -3217,7 +3222,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>241</v>
       </c>
@@ -3243,7 +3248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>242</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>248</v>
       </c>
@@ -3321,7 +3326,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>249</v>
       </c>
@@ -3347,7 +3352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>260</v>
       </c>
@@ -3373,7 +3378,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>261</v>
       </c>
@@ -3434,30 +3439,30 @@
       <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="40.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.4140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3518,7 +3523,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -3551,13 +3556,13 @@
       <c r="N2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R2" s="8" t="s">
@@ -3565,10 +3570,10 @@
       </c>
       <c r="S2" s="9" t="str">
         <f ca="1">TEXT(TODAY()-1,"dd-MM-YYYY")</f>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
@@ -3578,7 +3583,7 @@
       <c r="C3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>183</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3603,13 +3608,13 @@
       <c r="N3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R3" s="8" t="s">
@@ -3617,10 +3622,10 @@
       </c>
       <c r="S3" s="9" t="str">
         <f t="shared" ref="S3:S13" ca="1" si="0">TEXT(TODAY()-1,"dd-MM-YYYY")</f>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
@@ -3653,13 +3658,13 @@
       <c r="N4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="15" t="s">
         <v>160</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -3667,10 +3672,10 @@
       </c>
       <c r="S4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>239</v>
       </c>
@@ -3703,13 +3708,13 @@
       <c r="N5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>194</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>173</v>
       </c>
       <c r="R5" s="8" t="s">
@@ -3717,10 +3722,10 @@
       </c>
       <c r="S5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>240</v>
       </c>
@@ -3753,13 +3758,13 @@
       <c r="N6" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>194</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="15" t="s">
         <v>173</v>
       </c>
       <c r="R6" s="8" t="s">
@@ -3767,10 +3772,10 @@
       </c>
       <c r="S6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>241</v>
       </c>
@@ -3803,13 +3808,13 @@
       <c r="N7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R7" s="8" t="s">
@@ -3817,10 +3822,10 @@
       </c>
       <c r="S7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>242</v>
       </c>
@@ -3853,13 +3858,13 @@
       <c r="N8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R8" s="8" t="s">
@@ -3867,10 +3872,10 @@
       </c>
       <c r="S8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
@@ -3903,13 +3908,13 @@
       <c r="N9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="15" t="s">
         <v>160</v>
       </c>
       <c r="R9" s="8" t="s">
@@ -3917,10 +3922,10 @@
       </c>
       <c r="S9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>248</v>
       </c>
@@ -3953,13 +3958,13 @@
       <c r="N10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R10" s="8" t="s">
@@ -3967,10 +3972,10 @@
       </c>
       <c r="S10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>249</v>
       </c>
@@ -4003,13 +4008,13 @@
       <c r="N11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R11" s="8" t="s">
@@ -4017,10 +4022,10 @@
       </c>
       <c r="S11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>260</v>
       </c>
@@ -4053,13 +4058,13 @@
       <c r="N12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R12" s="8" t="s">
@@ -4067,10 +4072,10 @@
       </c>
       <c r="S12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+        <v>19-09-2025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>261</v>
       </c>
@@ -4103,13 +4108,13 @@
       <c r="N13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="15" t="s">
         <v>157</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="15" t="s">
         <v>159</v>
       </c>
       <c r="R13" s="8" t="s">
@@ -4117,7 +4122,7 @@
       </c>
       <c r="S13" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-08-2024</v>
+        <v>19-09-2025</v>
       </c>
     </row>
   </sheetData>
@@ -4155,34 +4160,34 @@
       <selection pane="topRight" activeCell="D2" sqref="D2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" customWidth="1"/>
-    <col min="8" max="8" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.08203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.90625" customWidth="1"/>
-    <col min="13" max="13" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.9140625" customWidth="1"/>
+    <col min="13" max="13" width="21.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4253,7 +4258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>241</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>242</v>
       </c>
@@ -4395,7 +4400,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>243</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>248</v>
       </c>
@@ -4537,7 +4542,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>249</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>261</v>
       </c>
@@ -4680,6 +4685,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Warning" prompt="This field is required when Representative column value is &quot;（委任を受けている方＊）&quot;." sqref="M2:P7" xr:uid="{A33776EC-E632-4264-B10B-A5C311F292A6}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Warning" prompt="This filed is Mandetory in case of &quot;Corporate&quot; flow type" sqref="C2:C7" xr:uid="{92A0DD8D-B354-4DF1-B2C8-B4E514E0EBF7}">
@@ -4715,23 +4721,23 @@
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
@@ -4845,7 +4851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
@@ -4883,7 +4889,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>239</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>240</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>260</v>
       </c>
@@ -5025,14 +5031,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>238</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>239</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>240</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>241</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>242</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>248</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>249</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>260</v>
       </c>
@@ -5164,7 +5170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>261</v>
       </c>
@@ -5176,6 +5182,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13" xr:uid="{7DB29300-1086-4877-8846-48C61888F3AA}">
       <formula1>"VISA,MSCD,JCB,AMEX,Diner Club,セイコーマート,セブンイレブン,ファミリーマート,ミニストップ,ローソン"</formula1>
